--- a/Documentation/BOMs/RFID Module BOM.xlsx
+++ b/Documentation/BOMs/RFID Module BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Other\Projects\Smart-Watch\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Other\Projects\Smart-Watch\Documentation\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5917E8C0-26C2-416A-BC3B-9738E6ACADDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287DB8CE-41AD-48A1-9C7A-B197A4A90B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CD4C552-014C-46CB-A006-06574E6AD0D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>TLV9004SIRTER</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Inductors</t>
+  </si>
+  <si>
+    <t>Alternative: 4513TC-495XGLB</t>
   </si>
 </sst>
 </file>
@@ -480,24 +483,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2854E2AE-1F84-4BA7-92E0-89D110801EEE}">
-  <dimension ref="A3:I12"/>
+  <dimension ref="A3:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -515,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -533,7 +537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -557,7 +561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -575,7 +579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -596,7 +600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -623,6 +627,9 @@
       </c>
       <c r="I12" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/BOMs/RFID Module BOM.xlsx
+++ b/Documentation/BOMs/RFID Module BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Other\Projects\Smart-Watch\Documentation\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\OneDrive\Documents\Projects\Smart-Watch\Documentation\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287DB8CE-41AD-48A1-9C7A-B197A4A90B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31425E55-0D0B-4AE6-8D3B-0FBE62F7243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CD4C552-014C-46CB-A006-06574E6AD0D8}"/>
+    <workbookView xWindow="17100" yWindow="0" windowWidth="17400" windowHeight="20985" xr2:uid="{2CD4C552-014C-46CB-A006-06574E6AD0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>TLV9004SIRTER</t>
   </si>
@@ -104,9 +104,6 @@
     <t>RFID z-axis transponder coil</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>https://www.grupopremo.com/en/tr1102-xy-axis-smd-ferrite-rfid-transponder-inductor-125khz-238-9mh-11x26x22mm/900-tr1102-0491j.html</t>
   </si>
   <si>
@@ -117,6 +114,102 @@
   </si>
   <si>
     <t>Alternative: 4513TC-495XGLB</t>
+  </si>
+  <si>
+    <t>Capacitors 0402</t>
+  </si>
+  <si>
+    <t>100p</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>4.7n</t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>4.7u</t>
+  </si>
+  <si>
+    <t>1n</t>
+  </si>
+  <si>
+    <t>220n</t>
+  </si>
+  <si>
+    <t>330p</t>
+  </si>
+  <si>
+    <t>Tuning cap</t>
+  </si>
+  <si>
+    <t>22u</t>
+  </si>
+  <si>
+    <t>Resistors 0402</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>33k</t>
+  </si>
+  <si>
+    <t>5.1k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>3.48M</t>
+  </si>
+  <si>
+    <t>402k</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>MLZ1608N100LT000</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/TDK/MLZ1608N100LT000?qs=%2FPzWLGNeQ%252BjWztxz0ZUthw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32G071G8U6TR </t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/STMicroelectronics/STM32G071G8U6TR?qs=ZSypp649SOUutATaO5pC%2Fg%3D%3D</t>
+  </si>
+  <si>
+    <t>MAX17291BANT+T</t>
+  </si>
+  <si>
+    <t>Boost converter</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/Analog-Devices-Maxim-Integrated/MAX17291BANT%2bT?qs=doiCPypUmgETSyGK3grjdw%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -161,13 +254,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -483,25 +579,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2854E2AE-1F84-4BA7-92E0-89D110801EEE}">
-  <dimension ref="A3:J12"/>
+  <dimension ref="A3:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2.58</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -519,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -537,109 +646,364 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>8</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.27</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="4">
+        <v>330</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" xr:uid="{99EE74FC-13A7-40F2-879C-C1B844F1958B}"/>
     <hyperlink ref="I5" r:id="rId2" xr:uid="{9F37DF70-479A-4075-B645-CC8F761DD2F5}"/>
-    <hyperlink ref="I7" r:id="rId3" xr:uid="{5F54DD71-01CF-4D7F-9084-F40F113E3552}"/>
-    <hyperlink ref="I8" r:id="rId4" xr:uid="{19310E6E-AEBC-4EE4-8909-610517DA6158}"/>
-    <hyperlink ref="I10" r:id="rId5" xr:uid="{07AEBB19-F2FD-4D98-886E-7BC9C7167E6F}"/>
-    <hyperlink ref="I12" r:id="rId6" xr:uid="{56E8F2ED-B2B5-4818-9DDF-A290EA2BFE44}"/>
+    <hyperlink ref="I8" r:id="rId3" xr:uid="{5F54DD71-01CF-4D7F-9084-F40F113E3552}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{19310E6E-AEBC-4EE4-8909-610517DA6158}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{07AEBB19-F2FD-4D98-886E-7BC9C7167E6F}"/>
+    <hyperlink ref="I13" r:id="rId6" xr:uid="{56E8F2ED-B2B5-4818-9DDF-A290EA2BFE44}"/>
+    <hyperlink ref="I14" r:id="rId7" xr:uid="{8F86C293-74A9-4063-9CCF-B4236FBC84FD}"/>
+    <hyperlink ref="I3" r:id="rId8" xr:uid="{A081A53F-2605-409C-BBDC-409D922BF744}"/>
+    <hyperlink ref="I6" r:id="rId9" xr:uid="{207F7DA6-A965-4818-8EF4-96A5353BAF71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/BOMs/RFID Module BOM.xlsx
+++ b/Documentation/BOMs/RFID Module BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\OneDrive\Documents\Projects\Smart-Watch\Documentation\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Other\Projects\Smart-Watch\Documentation\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31425E55-0D0B-4AE6-8D3B-0FBE62F7243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F65C0B-A972-465E-8311-598B9467D548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="0" windowWidth="17400" windowHeight="20985" xr2:uid="{2CD4C552-014C-46CB-A006-06574E6AD0D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CD4C552-014C-46CB-A006-06574E6AD0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>TLV9004SIRTER</t>
   </si>
@@ -210,6 +210,36 @@
   </si>
   <si>
     <t>https://www.mouser.co.uk/ProductDetail/Analog-Devices-Maxim-Integrated/MAX17291BANT%2bT?qs=doiCPypUmgETSyGK3grjdw%3D%3D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>GRM1555C2A101GA01D</t>
+  </si>
+  <si>
+    <t>GRM155R71H331MA01D</t>
+  </si>
+  <si>
+    <t>GCM155R72A102KA37J</t>
+  </si>
+  <si>
+    <t>GRM155R61E472KA01D</t>
+  </si>
+  <si>
+    <t>GRM158R61A226ME15D</t>
+  </si>
+  <si>
+    <t>ERJ-2GEJ512X</t>
+  </si>
+  <si>
+    <t>AF0402FR-0720KL</t>
+  </si>
+  <si>
+    <t>AC0402FR-07402KL</t>
+  </si>
+  <si>
+    <t>CRCW04023M48FKED</t>
   </si>
 </sst>
 </file>
@@ -254,12 +284,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -582,18 +609,19 @@
   <dimension ref="A3:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -606,11 +634,14 @@
       <c r="F3">
         <v>2.58</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -623,12 +654,14 @@
       <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -641,12 +674,14 @@
       <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>55</v>
       </c>
@@ -659,12 +694,14 @@
       <c r="G6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -683,12 +720,14 @@
       <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -701,12 +740,14 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -722,12 +763,14 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -749,17 +792,17 @@
       <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -769,22 +812,34 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>26</v>
       </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" t="s">
         <v>36</v>
       </c>
@@ -794,203 +849,254 @@
       <c r="G17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
       <c r="D18" t="s">
         <v>34</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
       <c r="D19" t="s">
         <v>31</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>32</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>29</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>35</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>33</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
       <c r="D25" t="s">
         <v>38</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D28" s="3">
         <v>100</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D29" s="3">
         <v>330</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>40</v>
       </c>
       <c r="E30">
         <v>6</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>46</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
       <c r="D32" t="s">
         <v>44</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>41</v>
       </c>
       <c r="E33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
       <c r="D34" t="s">
         <v>47</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>43</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>45</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
       <c r="D37" t="s">
         <v>49</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>42</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
       <c r="D39" t="s">
         <v>48</v>
       </c>
       <c r="E39">
         <v>1</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
